--- a/biology/Médecine/Académie_nationale_de_pharmacie/Académie_nationale_de_pharmacie.xlsx
+++ b/biology/Médecine/Académie_nationale_de_pharmacie/Académie_nationale_de_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_nationale_de_pharmacie</t>
+          <t>Académie_nationale_de_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie nationale de Pharmacie est une société savante française créée en 1803, qui s'intéresse à l’ensemble des domaines relevant du médicament, des produits de santé, de la biologie, de la santé publique et de la santé environnementale et située à Paris, au 4, avenue de l'Observatoire, dans les locaux de la faculté de pharmacie de Paris. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_nationale_de_pharmacie</t>
+          <t>Académie_nationale_de_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée le 3 août 1803, la Société de Pharmacie de Paris est reconnue d'utilité publique le 5 octobre 1877 par décret présidentiel. Elle devient par décret du 5 septembre 1946, Académie de Pharmacie, puis du 9 octobre 1979, Académie nationale de Pharmacie[1]. Le 26 janvier 2016, l'Académie nationale de Pharmacie est devenue personne morale sous la protection du président de la République. Antoine Parmentier et Louis-Nicolas Vauquelin en sont les premiers présidents.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée le 3 août 1803, la Société de Pharmacie de Paris est reconnue d'utilité publique le 5 octobre 1877 par décret présidentiel. Elle devient par décret du 5 septembre 1946, Académie de Pharmacie, puis du 9 octobre 1979, Académie nationale de Pharmacie. Le 26 janvier 2016, l'Académie nationale de Pharmacie est devenue personne morale sous la protection du président de la République. Antoine Parmentier et Louis-Nicolas Vauquelin en sont les premiers présidents.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_nationale_de_pharmacie</t>
+          <t>Académie_nationale_de_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Structure et missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Académie nationale de Pharmacie s'occupe de tous les aspects des sciences pharmaceutiques et de leurs applications, ainsi que des questions de santé publique et de santé environnementale. Elle est constituée de six sections thématiques :
 sciences physiques et chimiques appliquées au médicament et autres produits de santé (1re section) ;
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_nationale_de_pharmacie</t>
+          <t>Académie_nationale_de_pharmacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,9 +606,11 @@
           <t>Quelques membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les membres notoires de la compagnie, peuvent être cités[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les membres notoires de la compagnie, peuvent être cités :
 Auguste Béhal, Marcellin Berthelot, Edmond Blaise, Apollinaire Bouchardat, Antoine Bussy, Ludomir Combes, Marcel Delépine, Ernest Fourneau, Charles Louis Cadet de Gassicourt, Joseph Caventou, Nicolas Guibourt, Henri Herissey, Maurice-Marie Janot, Émile Jungfleisch, Maurice Javillier, Paul Lebeau, Henri Moissan,  Antoine Parmentier, Joseph Pelletier, Pierre Potier, Pierre Robiquet, Jacques Servier, Charles Tanret, René Truhaut, Louis-Nicolas Vauquelin.
 </t>
         </is>
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_nationale_de_pharmacie</t>
+          <t>Académie_nationale_de_pharmacie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,6 +641,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
